--- a/references/background_data/a4_distances.xlsx
+++ b/references/background_data/a4_distances.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{085E6334-F8E4-4821-A38E-FCF471AFCF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC672659-10CD-437F-B52B-52E8387E72D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a4_distances" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">a4_distances!$A$1:$O$288</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1773,9 +1776,6 @@
     <t>Description_Tally</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluminum curtain wall system, YKK AP - EPD </t>
-  </si>
-  <si>
     <t>Aluminum extrusion, AEC - EPD</t>
   </si>
   <si>
@@ -1788,9 +1788,6 @@
     <t>Aluminum extrusion, painted, AEC - EPD</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluminum storefront system, YKK AP - EPD </t>
-  </si>
-  <si>
     <t>Aluminum window wall system, YKK AP - EPD</t>
   </si>
   <si>
@@ -1954,12 +1951,18 @@
   </si>
   <si>
     <t>Acrylic-based paint for interior applications</t>
+  </si>
+  <si>
+    <t>Aluminum curtain wall system, YKK AP - EPD</t>
+  </si>
+  <si>
+    <t>Aluminum storefront system, YKK AP - EPD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2796,11 +2799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="E6" t="s">
         <v>492</v>
@@ -3035,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E7" t="s">
         <v>494</v>
@@ -3070,7 +3073,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E8" t="s">
         <v>496</v>
@@ -3105,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E9" t="s">
         <v>498</v>
@@ -3140,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E10" t="s">
         <v>500</v>
@@ -3175,7 +3178,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>643</v>
       </c>
       <c r="E11" t="s">
         <v>502</v>
@@ -3210,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E12" t="s">
         <v>504</v>
@@ -3350,7 +3353,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E16" t="s">
         <v>472</v>
@@ -3455,7 +3458,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E19" t="s">
         <v>384</v>
@@ -3525,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E21" t="s">
         <v>386</v>
@@ -3560,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E22" t="s">
         <v>388</v>
@@ -3767,7 +3770,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E28" t="s">
         <v>398</v>
@@ -3872,7 +3875,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E31" t="s">
         <v>514</v>
@@ -4073,7 +4076,7 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E37" t="s">
         <v>478</v>
@@ -4790,7 +4793,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E58" t="s">
         <v>295</v>
@@ -4825,7 +4828,7 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E59" t="s">
         <v>441</v>
@@ -4927,7 +4930,7 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E62" t="s">
         <v>518</v>
@@ -4962,7 +4965,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E63" t="s">
         <v>516</v>
@@ -5102,7 +5105,7 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E67" t="s">
         <v>400</v>
@@ -5137,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E68" t="s">
         <v>390</v>
@@ -5172,7 +5175,7 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E69" t="s">
         <v>392</v>
@@ -5242,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E71" t="s">
         <v>394</v>
@@ -5522,7 +5525,7 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E79" t="s">
         <v>474</v>
@@ -5659,7 +5662,7 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E83" t="s">
         <v>404</v>
@@ -7396,7 +7399,7 @@
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E137" t="s">
         <v>426</v>
@@ -7431,7 +7434,7 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E138" t="s">
         <v>443</v>
@@ -7466,7 +7469,7 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E139" t="s">
         <v>445</v>
@@ -7600,7 +7603,7 @@
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E143" t="s">
         <v>406</v>
@@ -7772,7 +7775,7 @@
         <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E148" t="s">
         <v>447</v>
@@ -7807,7 +7810,7 @@
         <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E149" t="s">
         <v>410</v>
@@ -7842,7 +7845,7 @@
         <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E150" t="s">
         <v>420</v>
@@ -7947,7 +7950,7 @@
         <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E153" t="s">
         <v>317</v>
@@ -8046,7 +8049,7 @@
         <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E156" t="s">
         <v>428</v>
@@ -8148,7 +8151,7 @@
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E159" t="s">
         <v>470</v>
@@ -8393,7 +8396,7 @@
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E166" t="s">
         <v>450</v>
@@ -8425,7 +8428,7 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E167" t="s">
         <v>452</v>
@@ -8457,7 +8460,7 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E168" t="s">
         <v>454</v>
@@ -8489,7 +8492,7 @@
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E169" t="s">
         <v>456</v>
@@ -8521,7 +8524,7 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E170" t="s">
         <v>458</v>
@@ -8553,7 +8556,7 @@
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E171" t="s">
         <v>460</v>
@@ -8585,7 +8588,7 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E172" t="s">
         <v>367</v>
@@ -8620,7 +8623,7 @@
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E173" t="s">
         <v>359</v>
@@ -8655,7 +8658,7 @@
         <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E174" t="s">
         <v>363</v>
@@ -8690,7 +8693,7 @@
         <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E175" t="s">
         <v>365</v>
@@ -8725,7 +8728,7 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E176" t="s">
         <v>361</v>
@@ -8760,7 +8763,7 @@
         <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E177" t="s">
         <v>370</v>
@@ -8865,7 +8868,7 @@
         <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E180" t="s">
         <v>372</v>
@@ -11725,7 +11728,7 @@
         <v>14</v>
       </c>
       <c r="D269" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E269" t="s">
         <v>480</v>
@@ -11900,7 +11903,7 @@
         <v>14</v>
       </c>
       <c r="D274" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E274" t="s">
         <v>430</v>
@@ -11964,7 +11967,7 @@
         <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E276" t="s">
         <v>432</v>
@@ -12168,7 +12171,7 @@
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E282" t="s">
         <v>412</v>
@@ -12203,7 +12206,7 @@
         <v>14</v>
       </c>
       <c r="D283" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E283" t="s">
         <v>462</v>
@@ -12238,7 +12241,7 @@
         <v>14</v>
       </c>
       <c r="D284" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E284" t="s">
         <v>382</v>
@@ -12267,16 +12270,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E285" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H285">
         <v>642</v>
@@ -12296,16 +12299,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
       </c>
       <c r="D286" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E286" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F286">
         <v>262</v>
@@ -12331,16 +12334,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E287" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H287">
         <v>642</v>
@@ -12360,16 +12363,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="D288" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E288" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H288">
         <v>642</v>
@@ -12385,6 +12388,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O288" xr:uid="{4A404D20-DABF-4BA7-AB6F-2AD670951B0F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/references/background_data/a4_distances.xlsx
+++ b/references/background_data/a4_distances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDA76C1-208F-4C66-97B8-1FE540CC2253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32105AF-7F91-4617-97CC-D174F369C1C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="647">
   <si>
     <t>id_PODLCA</t>
   </si>
@@ -1957,6 +1957,15 @@
   </si>
   <si>
     <t>R dist CA_container_ship</t>
+  </si>
+  <si>
+    <t>Light wood framing, SPF</t>
+  </si>
+  <si>
+    <t>Domestic softwood, US, AWC - EPD</t>
+  </si>
+  <si>
+    <t>Kiln-dried and planed softwood dimensional lumber for standard framing or planking. Industry-wide EPD from the American Wood Council.</t>
   </si>
 </sst>
 </file>
@@ -2814,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O288"/>
+  <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="L279" sqref="L279"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="K291" sqref="K291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L288" si="0">H2*0.75</f>
+        <f t="shared" ref="L2:L256" si="0">H2*0.75</f>
         <v>630</v>
       </c>
       <c r="M2" s="2">
@@ -13674,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="L257" s="3">
-        <f t="shared" ref="L257:L288" si="1">H257*0.75</f>
+        <f t="shared" ref="L257:L289" si="1">H257*0.75</f>
         <v>18</v>
       </c>
       <c r="M257" s="2">
@@ -14984,8 +14993,51 @@
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
     </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>644</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>645</v>
+      </c>
+      <c r="E289" t="s">
+        <v>646</v>
+      </c>
+      <c r="F289">
+        <v>262</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289">
+        <v>383</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289" s="3">
+        <f t="shared" si="1"/>
+        <v>287.25</v>
+      </c>
+      <c r="M289" s="2">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O288" xr:uid="{4A404D20-DABF-4BA7-AB6F-2AD670951B0F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>